--- a/ОБЖ/Лабы/12/лаба.xlsx
+++ b/ОБЖ/Лабы/12/лаба.xlsx
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,6 +701,12 @@
       <c r="E35">
         <f>B24/B25</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="C43">
+        <f>31*1.5*1.2*13/100/0.26325/1.1</f>
+        <v>25.050505050505048</v>
       </c>
     </row>
   </sheetData>
